--- a/problem list.xlsx
+++ b/problem list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YuanXu/Documents/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YuanXu/Documents/work/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="680" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="4400" yWindow="880" windowWidth="24960" windowHeight="13720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户管理模块" sheetId="1" r:id="rId1"/>
+    <sheet name="车商汇" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>如果是销售顾问导入的线索或者客户， 汽车之家会再有分配给其他经销商的可能性，若有，什么情况下会分配给其他人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,6 +71,58 @@
   </si>
   <si>
     <t>公共线索都是怎么产生的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车商汇除了有名额的，其他的文章是不是没有限制，只要想发文章就可以发</t>
+    <rPh sb="0" eb="1">
+      <t>che'shang'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'ming'e</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen'zhang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'bu'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi'yao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen'zhang'jiu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fa</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -447,12 +503,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +521,28 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="95.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/problem list.xlsx
+++ b/problem list.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="880" windowWidth="24960" windowHeight="13720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="24820" windowHeight="13720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="客户管理模块" sheetId="1" r:id="rId1"/>
     <sheet name="车商汇" sheetId="2" r:id="rId2"/>
+    <sheet name="维修保养" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>如果是销售顾问导入的线索或者客户， 汽车之家会再有分配给其他经销商的可能性，若有，什么情况下会分配给其他人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +123,106 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么要自保养和代保养</t>
+    <rPh sb="0" eb="1">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'yang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约和预订有什么区别</t>
+    <rPh sb="0" eb="1">
+      <t>yu'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'shen'me</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qu'bie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自保养是不是4s店提供的新车保养服务
+而代保养是需要c端客户付费的保养服务</t>
+    <rPh sb="0" eb="1">
+      <t>zi'bao'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'bu'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin'che</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bao'yang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>er</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bao'yang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fu'fei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bao'yang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fu'wu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,10 +276,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -549,4 +656,37 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="91" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>